--- a/Clients/Client2.xlsx
+++ b/Clients/Client2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Contact1@Site2.co.uk</t>
   </si>
   <si>
-    <t>Contact3@Site2.co.uk</t>
-  </si>
-  <si>
     <t>Service1</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Site1|Site2|Site3</t>
+  </si>
+  <si>
+    <t>Contact3@Site3.co.uk</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="11"/>
     </row>
@@ -612,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
